--- a/data/excel_files_reduced/test_excel_6_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_6_reduced.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/mvp/data/excel_files_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0083F8B7-AF7E-B44A-A88B-FEBB01ABF29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599A8CC6-DD2A-FE4F-A88A-A989C583E250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Operator</t>
   </si>
   <si>
-    <t>Flight #</t>
-  </si>
-  <si>
     <t>Route</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>If_Weight_Or_Size</t>
   </si>
   <si>
-    <t>17:18</t>
-  </si>
-  <si>
     <t>Fort Myer, Virginia</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
   </si>
   <si>
     <t>During a demonstration flight, a U.S. Army flyer flown by Orville Wright nose-dived into the ground from a height of approximately 75 feet, killing Lt. Thomas E. Selfridge who was a passenger. This was the first recorded airplane fatality in history.  One of two propellers separated in flight, tearing loose the wires bracing the rudder and causing the loss of control of the aircraft.  Orville Wright suffered broken ribs, pelvis and a leg.  Selfridge suffered a crushed skull and died a short time later.</t>
-  </si>
-  <si>
-    <t>06:30</t>
   </si>
   <si>
     <t>AtlantiCity, New Jersey</t>
@@ -225,15 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,19 +524,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -581,7 +569,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -606,194 +594,191 @@
         <v>18</v>
       </c>
       <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3183</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>3183</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2">
+      <c r="L2">
         <f>SUM(B2,C2)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" t="str">
-        <f>IF(F2="good","Yes","No")</f>
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(E2="good","Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="O2">
+      <c r="N2">
         <f>COUNTIF(C:C,"&lt;0")</f>
         <v>0</v>
       </c>
+      <c r="O2" t="e">
+        <f>SUMIF(#REF!,"&gt;"&amp;AVERAGE(#REF!))</f>
+        <v>#REF!</v>
+      </c>
       <c r="P2">
-        <f>SUMIF(E:E,"&gt;"&amp;AVERAGE(E:E))</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>AVERAGEIF(I:I,"&gt;0")</f>
+        <f>AVERAGEIF(H:H,"&gt;0")</f>
         <v>3.5</v>
       </c>
-      <c r="R2" t="str">
-        <f>CONCATENATE("ID-",A2,"-",F2)</f>
+      <c r="Q2" t="str">
+        <f>CONCATENATE("ID-",A2,"-",E2)</f>
         <v>ID-3183-Demonstration</v>
       </c>
+      <c r="R2">
+        <f>INDEX(B:B,MATCH(A2,A:A,0))</f>
+        <v>0.72083333333333333</v>
+      </c>
       <c r="S2" t="str">
-        <f>INDEX(B:B,MATCH(A2,A:A,0))</f>
-        <v>17:18</v>
-      </c>
-      <c r="T2" t="str">
         <f>IF(OR(B2&gt;0,C2&gt;0),"Acceptable","Check")</f>
         <v>Acceptable</v>
       </c>
-      <c r="U2">
+      <c r="T2">
         <f>COUNTIF(D:D, "Military - U.S. Army")</f>
         <v>1</v>
       </c>
-      <c r="V2">
-        <f>AVERAGEIF(C:C,"Fort Myer, Virginia", I:I)</f>
+      <c r="U2">
+        <f>AVERAGEIF(C:C,"Fort Myer, Virginia", H:H)</f>
         <v>2</v>
       </c>
-      <c r="W2" t="str">
-        <f>IFERROR(VLOOKUP("FlightNumber", A:E, 4, FALSE), "Flight Not Found")</f>
+      <c r="V2" t="str">
+        <f>IFERROR(VLOOKUP("FlightNumber", A:D, 4, FALSE), "Flight Not Found")</f>
         <v>Flight Not Found</v>
       </c>
-      <c r="X2" t="str" cm="1">
-        <f t="array" ref="X2">IF(AND(B:B &gt; TIME(6, 0, 0), B:B &lt;= TIME(18, 0, 0)), "Day", "Night")</f>
+      <c r="W2" t="str" cm="1">
+        <f t="array" ref="W2">IF(AND(B:B &gt; TIME(6, 0, 0), B:B &lt;= TIME(18, 0, 0)), "Day", "Night")</f>
         <v>Night</v>
       </c>
-      <c r="Y2">
+      <c r="X2">
         <f>COUNTIFS(D:D, "Military - U.S. Army", C:C, "Fort Myer, Virginia")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>3184</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
+      <c r="G3">
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3">
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3">
         <f>SUM(B3,C3)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" t="str">
-        <f>IF(F3="good","Yes","No")</f>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(E3="good","Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="O3">
+      <c r="N3">
         <f>COUNTIF(C:C,"&lt;0")</f>
         <v>0</v>
       </c>
+      <c r="O3" t="e">
+        <f>SUMIF(#REF!,"&gt;"&amp;AVERAGE(#REF!))</f>
+        <v>#REF!</v>
+      </c>
       <c r="P3">
-        <f>SUMIF(E:E,"&gt;"&amp;AVERAGE(E:E))</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>AVERAGEIF(I:I,"&gt;0")</f>
+        <f>AVERAGEIF(H:H,"&gt;0")</f>
         <v>3.5</v>
       </c>
-      <c r="R3" t="str">
-        <f>CONCATENATE("ID-",A3,"-",F3)</f>
+      <c r="Q3" t="str">
+        <f>CONCATENATE("ID-",A3,"-",E3)</f>
         <v>ID-3184-Test flight</v>
       </c>
+      <c r="R3">
+        <f>INDEX(B:B,MATCH(A3,A:A,0))</f>
+        <v>0.27083333333333331</v>
+      </c>
       <c r="S3" t="str">
-        <f>INDEX(B:B,MATCH(A3,A:A,0))</f>
-        <v>06:30</v>
-      </c>
-      <c r="T3" t="str">
         <f>IF(OR(B3&gt;0,C3&gt;0),"Acceptable","Check")</f>
         <v>Acceptable</v>
       </c>
-      <c r="U3">
+      <c r="T3">
         <f>COUNTIF(D:D, "Military - U.S. Army")</f>
         <v>1</v>
       </c>
-      <c r="V3">
-        <f>AVERAGEIF(C:C,"Fort Myer, Virginia", I:I)</f>
+      <c r="U3">
+        <f>AVERAGEIF(C:C,"Fort Myer, Virginia", H:H)</f>
         <v>2</v>
       </c>
-      <c r="W3" t="str">
-        <f>IFERROR(VLOOKUP("FlightNumber", A:E, 4, FALSE), "Flight Not Found")</f>
+      <c r="V3" t="str">
+        <f>IFERROR(VLOOKUP("FlightNumber", A:D, 4, FALSE), "Flight Not Found")</f>
         <v>Flight Not Found</v>
       </c>
-      <c r="X3" t="str" cm="1">
-        <f t="array" ref="X3">IF(AND(B:B &gt; TIME(6, 0, 0), B:B &lt;= TIME(18, 0, 0)), "Day", "Night")</f>
+      <c r="W3" t="str" cm="1">
+        <f t="array" ref="W3">IF(AND(B:B &gt; TIME(6, 0, 0), B:B &lt;= TIME(18, 0, 0)), "Day", "Night")</f>
         <v>Night</v>
       </c>
-      <c r="Y3">
+      <c r="X3">
         <f>COUNTIFS(D:D, "Military - U.S. Army", C:C, "Fort Myer, Virginia")</f>
         <v>1</v>
       </c>

--- a/data/excel_files_reduced/test_excel_6_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_6_reduced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599A8CC6-DD2A-FE4F-A88A-A989C583E250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D645E7F-4BC2-2247-8C8F-DA3FC5CE737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>cn/In</t>
-  </si>
-  <si>
     <t>Aboard</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Count_Negative_Weight</t>
   </si>
   <si>
-    <t>Sum_High_Acidity</t>
-  </si>
-  <si>
     <t>Average_If_Ripe</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
   </si>
   <si>
     <t>Wright Flyer III</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>During a demonstration flight, a U.S. Army flyer flown by Orville Wright nose-dived into the ground from a height of approximately 75 feet, killing Lt. Thomas E. Selfridge who was a passenger. This was the first recorded airplane fatality in history.  One of two propellers separated in flight, tearing loose the wires bracing the rudder and causing the loss of control of the aircraft.  Orville Wright suffered broken ribs, pelvis and a leg.  Selfridge suffered a crushed skull and died a short time later.</t>
@@ -524,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,7 +526,7 @@
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +557,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -588,28 +579,22 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3183</v>
       </c>
@@ -617,86 +602,79 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2">
+      <c r="K2">
         <f>SUM(B2,C2)</f>
         <v>0.72083333333333333</v>
       </c>
-      <c r="M2" t="str">
+      <c r="L2" t="str">
         <f>IF(E2="good","Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="N2">
+      <c r="M2">
         <f>COUNTIF(C:C,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="O2" t="e">
-        <f>SUMIF(#REF!,"&gt;"&amp;AVERAGE(#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P2">
-        <f>AVERAGEIF(H:H,"&gt;0")</f>
+      <c r="N2">
+        <f>AVERAGEIF(G:G,"&gt;0")</f>
         <v>3.5</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="O2" t="str">
         <f>CONCATENATE("ID-",A2,"-",E2)</f>
         <v>ID-3183-Demonstration</v>
       </c>
-      <c r="R2">
+      <c r="P2">
         <f>INDEX(B:B,MATCH(A2,A:A,0))</f>
         <v>0.72083333333333333</v>
       </c>
-      <c r="S2" t="str">
+      <c r="Q2" t="str">
         <f>IF(OR(B2&gt;0,C2&gt;0),"Acceptable","Check")</f>
         <v>Acceptable</v>
       </c>
-      <c r="T2">
+      <c r="R2">
         <f>COUNTIF(D:D, "Military - U.S. Army")</f>
         <v>1</v>
       </c>
-      <c r="U2">
-        <f>AVERAGEIF(C:C,"Fort Myer, Virginia", H:H)</f>
+      <c r="S2">
+        <f>AVERAGEIF(C:C,"Fort Myer, Virginia", G:G)</f>
         <v>2</v>
       </c>
-      <c r="V2" t="str">
+      <c r="T2" t="str">
         <f>IFERROR(VLOOKUP("FlightNumber", A:D, 4, FALSE), "Flight Not Found")</f>
         <v>Flight Not Found</v>
       </c>
-      <c r="W2" t="str" cm="1">
-        <f t="array" ref="W2">IF(AND(B:B &gt; TIME(6, 0, 0), B:B &lt;= TIME(18, 0, 0)), "Day", "Night")</f>
+      <c r="U2" t="str" cm="1">
+        <f t="array" ref="U2">IF(AND(B:B &gt; TIME(6, 0, 0), B:B &lt;= TIME(18, 0, 0)), "Day", "Night")</f>
         <v>Night</v>
       </c>
-      <c r="X2">
+      <c r="V2">
         <f>COUNTIFS(D:D, "Military - U.S. Army", C:C, "Fort Myer, Virginia")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3184</v>
       </c>
@@ -704,81 +682,74 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
       <c r="G3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
       <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3">
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
         <f>SUM(B3,C3)</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="M3" t="str">
+      <c r="L3" t="str">
         <f>IF(E3="good","Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="N3">
+      <c r="M3">
         <f>COUNTIF(C:C,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="O3" t="e">
-        <f>SUMIF(#REF!,"&gt;"&amp;AVERAGE(#REF!))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P3">
-        <f>AVERAGEIF(H:H,"&gt;0")</f>
+      <c r="N3">
+        <f>AVERAGEIF(G:G,"&gt;0")</f>
         <v>3.5</v>
       </c>
-      <c r="Q3" t="str">
+      <c r="O3" t="str">
         <f>CONCATENATE("ID-",A3,"-",E3)</f>
         <v>ID-3184-Test flight</v>
       </c>
-      <c r="R3">
+      <c r="P3">
         <f>INDEX(B:B,MATCH(A3,A:A,0))</f>
         <v>0.27083333333333331</v>
       </c>
-      <c r="S3" t="str">
+      <c r="Q3" t="str">
         <f>IF(OR(B3&gt;0,C3&gt;0),"Acceptable","Check")</f>
         <v>Acceptable</v>
       </c>
-      <c r="T3">
+      <c r="R3">
         <f>COUNTIF(D:D, "Military - U.S. Army")</f>
         <v>1</v>
       </c>
-      <c r="U3">
-        <f>AVERAGEIF(C:C,"Fort Myer, Virginia", H:H)</f>
+      <c r="S3">
+        <f>AVERAGEIF(C:C,"Fort Myer, Virginia", G:G)</f>
         <v>2</v>
       </c>
-      <c r="V3" t="str">
+      <c r="T3" t="str">
         <f>IFERROR(VLOOKUP("FlightNumber", A:D, 4, FALSE), "Flight Not Found")</f>
         <v>Flight Not Found</v>
       </c>
-      <c r="W3" t="str" cm="1">
-        <f t="array" ref="W3">IF(AND(B:B &gt; TIME(6, 0, 0), B:B &lt;= TIME(18, 0, 0)), "Day", "Night")</f>
+      <c r="U3" t="str" cm="1">
+        <f t="array" ref="U3">IF(AND(B:B &gt; TIME(6, 0, 0), B:B &lt;= TIME(18, 0, 0)), "Day", "Night")</f>
         <v>Night</v>
       </c>
-      <c r="X3">
+      <c r="V3">
         <f>COUNTIFS(D:D, "Military - U.S. Army", C:C, "Fort Myer, Virginia")</f>
         <v>1</v>
       </c>

--- a/data/excel_files_reduced/test_excel_6_reduced.xlsx
+++ b/data/excel_files_reduced/test_excel_6_reduced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D645E7F-4BC2-2247-8C8F-DA3FC5CE737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E92883-56AC-BE47-B0E0-CF2BD62BD9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,30 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -87,9 +65,6 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Sum_Size_Weight</t>
-  </si>
-  <si>
     <t>If_Good_Quality</t>
   </si>
   <si>
@@ -105,9 +80,6 @@
     <t>Index_Match_Size</t>
   </si>
   <si>
-    <t>If_Weight_Or_Size</t>
-  </si>
-  <si>
     <t>Fort Myer, Virginia</t>
   </si>
   <si>
@@ -142,15 +114,6 @@
   </si>
   <si>
     <t>Average Aboard Passengers of Flights by a Specific Location</t>
-  </si>
-  <si>
-    <t>Lookup with Error</t>
-  </si>
-  <si>
-    <t>Day or Night</t>
-  </si>
-  <si>
-    <t>Total Flight Count by Operator and Location</t>
   </si>
 </sst>
 </file>
@@ -515,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -526,7 +489,7 @@
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,28 +536,13 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3183</v>
       </c>
@@ -602,16 +550,16 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -623,58 +571,38 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <f>SUM(B2,C2)</f>
-        <v>0.72083333333333333</v>
-      </c>
-      <c r="L2" t="str">
+        <v>19</v>
+      </c>
+      <c r="K2" t="str">
         <f>IF(E2="good","Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="M2">
+      <c r="L2">
         <f>COUNTIF(C:C,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="M2">
         <f>AVERAGEIF(G:G,"&gt;0")</f>
         <v>3.5</v>
       </c>
-      <c r="O2" t="str">
+      <c r="N2" t="str">
         <f>CONCATENATE("ID-",A2,"-",E2)</f>
         <v>ID-3183-Demonstration</v>
       </c>
+      <c r="O2" t="str">
+        <f>INDEX(C:C,MATCH(A2,A:A,0))</f>
+        <v>Fort Myer, Virginia</v>
+      </c>
       <c r="P2">
-        <f>INDEX(B:B,MATCH(A2,A:A,0))</f>
-        <v>0.72083333333333333</v>
-      </c>
-      <c r="Q2" t="str">
-        <f>IF(OR(B2&gt;0,C2&gt;0),"Acceptable","Check")</f>
-        <v>Acceptable</v>
-      </c>
-      <c r="R2">
         <f>COUNTIF(D:D, "Military - U.S. Army")</f>
         <v>1</v>
       </c>
-      <c r="S2">
+      <c r="Q2">
         <f>AVERAGEIF(C:C,"Fort Myer, Virginia", G:G)</f>
         <v>2</v>
       </c>
-      <c r="T2" t="str">
-        <f>IFERROR(VLOOKUP("FlightNumber", A:D, 4, FALSE), "Flight Not Found")</f>
-        <v>Flight Not Found</v>
-      </c>
-      <c r="U2" t="str" cm="1">
-        <f t="array" ref="U2">IF(AND(B:B &gt; TIME(6, 0, 0), B:B &lt;= TIME(18, 0, 0)), "Day", "Night")</f>
-        <v>Night</v>
-      </c>
-      <c r="V2">
-        <f>COUNTIFS(D:D, "Military - U.S. Army", C:C, "Fort Myer, Virginia")</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3184</v>
       </c>
@@ -682,16 +610,16 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -703,55 +631,35 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3">
-        <f>SUM(B3,C3)</f>
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="L3" t="str">
+        <v>24</v>
+      </c>
+      <c r="K3" t="str">
         <f>IF(E3="good","Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="M3">
+      <c r="L3">
         <f>COUNTIF(C:C,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="M3">
         <f>AVERAGEIF(G:G,"&gt;0")</f>
         <v>3.5</v>
       </c>
-      <c r="O3" t="str">
+      <c r="N3" t="str">
         <f>CONCATENATE("ID-",A3,"-",E3)</f>
         <v>ID-3184-Test flight</v>
       </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3" si="0">INDEX(C:C,MATCH(A3,A:A,0))</f>
+        <v>AtlantiCity, New Jersey</v>
+      </c>
       <c r="P3">
-        <f>INDEX(B:B,MATCH(A3,A:A,0))</f>
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="Q3" t="str">
-        <f>IF(OR(B3&gt;0,C3&gt;0),"Acceptable","Check")</f>
-        <v>Acceptable</v>
-      </c>
-      <c r="R3">
         <f>COUNTIF(D:D, "Military - U.S. Army")</f>
         <v>1</v>
       </c>
-      <c r="S3">
+      <c r="Q3">
         <f>AVERAGEIF(C:C,"Fort Myer, Virginia", G:G)</f>
         <v>2</v>
-      </c>
-      <c r="T3" t="str">
-        <f>IFERROR(VLOOKUP("FlightNumber", A:D, 4, FALSE), "Flight Not Found")</f>
-        <v>Flight Not Found</v>
-      </c>
-      <c r="U3" t="str" cm="1">
-        <f t="array" ref="U3">IF(AND(B:B &gt; TIME(6, 0, 0), B:B &lt;= TIME(18, 0, 0)), "Day", "Night")</f>
-        <v>Night</v>
-      </c>
-      <c r="V3">
-        <f>COUNTIFS(D:D, "Military - U.S. Army", C:C, "Fort Myer, Virginia")</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
